--- a/array_function_and_operation/配列関数と演算子調査.xlsx
+++ b/array_function_and_operation/配列関数と演算子調査.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_AD4D066CA252ABEACE02EC4C8BD6EBCA73EEDF07" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{651FC46E-7B92-4968-A992-673B18C803DB}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_AD4D066CA252ABEACE02EC4C8BD6EBCA73EEDF07" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{71999DB9-76B7-451F-9C51-A7F25CF0DE74}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -700,9 +700,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>psql -U postgres -p5432 -d testdb -c "select ARRAY[2,2,7] &lt;@ ARRAY[1,7,4,2,6] as ""@&gt;"",ARRAY[2,2,7] &lt;@ ARRAY[1,7,4,2,6] as ""&lt;@"",ARRAY[1,2,3] || ARRAY[4,5,6,7] as ""||"";"</t>
-  </si>
-  <si>
     <t xml:space="preserve"> @&gt; | &lt;@ |       ||</t>
   </si>
   <si>
@@ -3494,6 +3491,10 @@
   </si>
   <si>
     <t xml:space="preserve"> {xx,NULL,zz}    </t>
+  </si>
+  <si>
+    <t>psql -U postgres -p5432 -d testdb -c "select ARRAY[2,2,7] &lt;@ ARRAY[1,7,4,2,6] as ""@&gt;"",ARRAY[2,2,7] &lt;@ ARRAY[1,7,4,2,6] as ""&lt;@"",ARRAY[1,2,3] || ARRAY[4,5,6,7] as ""||"";"</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -4139,8 +4140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C114" sqref="C114"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4275,37 +4276,37 @@
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="2:2" s="15" customFormat="1">
       <c r="B29" s="15" t="s">
-        <v>24</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="2:2" s="15" customFormat="1">
       <c r="B30" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="2:2" s="15" customFormat="1">
       <c r="B31" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="2:2" s="15" customFormat="1">
       <c r="B32" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="2:2" s="15" customFormat="1">
       <c r="B33" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="22.5">
       <c r="B36" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="23.25" thickBot="1">
@@ -4313,7 +4314,7 @@
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="2:2">
@@ -4328,262 +4329,262 @@
     </row>
     <row r="41" spans="2:2" ht="37.5">
       <c r="B41" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="2:2" ht="56.25">
       <c r="B42" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="2:2" ht="19.5" thickBot="1">
       <c r="B43" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="2:2" ht="35.25">
       <c r="B44" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="2:2" ht="37.5">
       <c r="B45" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="2:2" ht="36" thickBot="1">
       <c r="B46" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="2:2" ht="36" thickBot="1">
       <c r="B49" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="2:2" ht="37.5">
       <c r="B50" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="2:2" ht="93.75">
       <c r="B51" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="2:2" ht="35.25">
       <c r="B52" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="2:2" ht="36" thickBot="1">
       <c r="B53" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="2:2" ht="35.25">
       <c r="B54" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="2:2" ht="37.5">
       <c r="B55" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="2:2" ht="19.5" thickBot="1">
       <c r="B56" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="2:2" ht="35.25">
       <c r="B57" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="2:2" ht="37.5">
       <c r="B58" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="2:2" ht="36" thickBot="1">
       <c r="B59" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="2:2" ht="36" thickBot="1">
       <c r="B62" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="2:2" ht="37.5">
       <c r="B63" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="2:2" ht="131.25">
       <c r="B64" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="2:2" ht="36" thickBot="1">
       <c r="B65" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="2:2" ht="37.5">
       <c r="B66" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="2:2" ht="187.5">
       <c r="B67" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="2:2" ht="38.25" thickBot="1">
       <c r="B68" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="2:2" ht="37.5">
       <c r="B69" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="2:2" ht="56.25">
       <c r="B70" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="2:2" ht="19.5" thickBot="1">
       <c r="B71" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="2:2" ht="37.5">
       <c r="B72" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="2:2" ht="93.75">
       <c r="B73" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="2:2" ht="36" thickBot="1">
       <c r="B74" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="2:2" ht="37.5">
       <c r="B75" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="2:2" ht="37.5">
       <c r="B76" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="2:2" ht="36" thickBot="1">
       <c r="B77" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="2:2" ht="37.5">
       <c r="B78" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="2:2" ht="93.75">
       <c r="B79" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" spans="2:2" ht="36" thickBot="1">
       <c r="B80" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="2:2" ht="35.25">
       <c r="B81" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="2:2" ht="37.5">
       <c r="B82" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83" spans="2:2" ht="19.5" thickBot="1">
       <c r="B83" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85" spans="2:2" ht="37.5">
       <c r="B85" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86" spans="2:2" ht="19.5" thickBot="1">
       <c r="B86" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="2:2" ht="37.5">
       <c r="B87" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="88" spans="2:2" ht="168.75">
       <c r="B88" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="89" spans="2:2" ht="38.25" thickBot="1">
       <c r="B89" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="2:2">
@@ -4598,124 +4599,124 @@
     </row>
     <row r="95" spans="2:2" ht="35.25">
       <c r="B95" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="96" spans="2:2" ht="112.5">
       <c r="B96" s="33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="97" spans="2:18" ht="35.25">
       <c r="B97" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98" spans="2:18">
       <c r="B98" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="99" spans="2:18">
       <c r="B99" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="100" spans="2:18">
       <c r="B100" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="101" spans="2:18">
       <c r="B101" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="102" spans="2:18" ht="19.5" thickBot="1">
       <c r="B102" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="104" spans="2:18">
       <c r="B104" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="105" spans="2:18" s="15" customFormat="1">
       <c r="B105" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="106" spans="2:18" s="15" customFormat="1">
       <c r="B106" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C106" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C106" s="15" t="s">
+      <c r="D106" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D106" s="15" t="s">
+      <c r="E106" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E106" s="15" t="s">
+      <c r="F106" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="F106" s="15" t="s">
+      <c r="G106" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="G106" s="15" t="s">
+      <c r="H106" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="H106" s="15" t="s">
+      <c r="I106" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="I106" s="15" t="s">
+      <c r="J106" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="J106" s="15" t="s">
+      <c r="K106" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="K106" s="15" t="s">
+      <c r="L106" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="L106" s="15" t="s">
+      <c r="M106" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="M106" s="15" t="s">
+      <c r="N106" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="N106" s="15" t="s">
+      <c r="O106" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="O106" s="15" t="s">
+      <c r="P106" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="P106" s="15" t="s">
+      <c r="Q106" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="Q106" s="15" t="s">
+      <c r="R106" s="15" t="s">
         <v>110</v>
-      </c>
-      <c r="R106" s="15" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="107" spans="2:18" s="15" customFormat="1">
       <c r="B107" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108" spans="2:18" s="15" customFormat="1">
       <c r="B108" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C108" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C108" s="15" t="s">
+      <c r="D108" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="D108" s="15" t="s">
+      <c r="E108" s="15" t="s">
         <v>115</v>
-      </c>
-      <c r="E108" s="15" t="s">
-        <v>116</v>
       </c>
       <c r="F108" s="15">
         <v>3</v>
@@ -4730,19 +4731,19 @@
         <v>2</v>
       </c>
       <c r="J108" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="K108" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="K108" s="15" t="s">
+      <c r="L108" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="L108" s="15" t="s">
+      <c r="M108" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="M108" s="15" t="s">
+      <c r="N108" s="15" t="s">
         <v>120</v>
-      </c>
-      <c r="N108" s="15" t="s">
-        <v>121</v>
       </c>
       <c r="O108" s="15">
         <v>4</v>
@@ -4751,7 +4752,7 @@
         <v>4</v>
       </c>
       <c r="Q108" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R108" s="15">
         <v>1</v>
@@ -4759,16 +4760,16 @@
     </row>
     <row r="109" spans="2:18" s="15" customFormat="1">
       <c r="B109" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C109" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C109" s="15" t="s">
+      <c r="D109" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="D109" s="15" t="s">
+      <c r="E109" s="15" t="s">
         <v>115</v>
-      </c>
-      <c r="E109" s="15" t="s">
-        <v>116</v>
       </c>
       <c r="F109" s="15">
         <v>3</v>
@@ -4783,19 +4784,19 @@
         <v>2</v>
       </c>
       <c r="J109" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="K109" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="K109" s="15" t="s">
+      <c r="L109" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="L109" s="15" t="s">
+      <c r="M109" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="M109" s="15" t="s">
+      <c r="N109" s="15" t="s">
         <v>120</v>
-      </c>
-      <c r="N109" s="15" t="s">
-        <v>121</v>
       </c>
       <c r="O109" s="15">
         <v>4</v>
@@ -4804,7 +4805,7 @@
         <v>4</v>
       </c>
       <c r="Q109" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R109" s="15">
         <v>2</v>
@@ -4812,7 +4813,7 @@
     </row>
     <row r="110" spans="2:18" s="15" customFormat="1">
       <c r="B110" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
